--- a/biology/Botanique/Terret/Terret.xlsx
+++ b/biology/Botanique/Terret/Terret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Terret est une famille de cépages noir, gris et blanc.
 Connu depuis toujours dans le Languedoc, il proviendrait probablement des plantations faites dès l'Antiquité, par les Grecs et Romains. Il connut son heure de gloire aux XVIIe et XVIIIe siècle, dans l'élaboration de vin destiné à être distillé, puis au XIXe et début du XXe siècle dans l'industrie de la vermoutherie.
